--- a/biology/Botanique/Barbon_hérissé/Barbon_hérissé.xlsx
+++ b/biology/Botanique/Barbon_hérissé/Barbon_hérissé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbon_h%C3%A9riss%C3%A9</t>
+          <t>Barbon_hérissé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyparrhenia hirta
 Le barbon hérissé (Hyparrhenia hirta (L.) Stapf) est une espèce de plante herbacée de la famille des poacées, originaire d'Afrique, d'Asie et du Sud de l'Europe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbon_h%C3%A9riss%C3%A9</t>
+          <t>Barbon_hérissé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuillage glauque.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbon_h%C3%A9riss%C3%A9</t>
+          <t>Barbon_hérissé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon INPN      (5 mars 2015)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon INPN      (5 mars 2015)
 Andropogon collinus Lojac., 1909
 Andropogon distachyos var. hirtus (L.) Koeler, 1802
 Andropogon giganteus Ten., 1838 (non Hochst. = Cymbopogon caesius subsp. giganteus (Chiov.) Sales)
